--- a/result/zernike_14_moment_times_CPU_15P_3K.xlsx
+++ b/result/zernike_14_moment_times_CPU_15P_3K.xlsx
@@ -468,19 +468,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6416164209511191</v>
+        <v>-0.4333617573055498</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7373268177725237</v>
+        <v>-0.7350006213865045</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2203528881072998</v>
+        <v>0.220649242401123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07104921340942383</v>
+        <v>0.08342528343200684</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1241843700408936</v>
+        <v>0.1558752059936523</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7763862729291293</v>
+        <v>0.9708713894172524</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8280427472375429</v>
+        <v>-0.9143995828100298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1540243625640869</v>
+        <v>0.125924825668335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2308433055877686</v>
+        <v>0.2180440425872803</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3707754611968994</v>
+        <v>0.3746540546417236</v>
       </c>
     </row>
     <row r="4">
@@ -518,19 +518,19 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8554554659150242</v>
+        <v>1.064844103278185</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4731120405901634</v>
+        <v>-0.5622851315529604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3497920036315918</v>
+        <v>0.2866041660308838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5477161407470703</v>
+        <v>0.5072782039642334</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9203906059265137</v>
+        <v>0.9532914161682129</v>
       </c>
     </row>
     <row r="5">
@@ -543,19 +543,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.018226979027018</v>
+        <v>2.042461407979114</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6352744842050816</v>
+        <v>-0.6960429674996742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2325508594512939</v>
+        <v>0.2149343490600586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9277174472808838</v>
+        <v>0.6950047016143799</v>
       </c>
       <c r="G5" t="n">
-        <v>2.141552448272705</v>
+        <v>2.122860193252563</v>
       </c>
     </row>
     <row r="6">
@@ -568,19 +568,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>2.327619224601461</v>
+        <v>2.262558434335812</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1568967952499924</v>
+        <v>-0.1481154538497475</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6760649681091309</v>
+        <v>0.6965000629425049</v>
       </c>
       <c r="F6" t="n">
-        <v>3.795954942703247</v>
+        <v>3.608020067214966</v>
       </c>
       <c r="G6" t="n">
-        <v>8.53571605682373</v>
+        <v>8.242828369140625</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +593,19 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2.40834567980069</v>
+        <v>2.39014070181086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2546083882278375</v>
+        <v>0.2511360965989741</v>
       </c>
       <c r="E7" t="n">
-        <v>1.646863222122192</v>
+        <v>1.752833604812622</v>
       </c>
       <c r="F7" t="n">
-        <v>12.08984994888306</v>
+        <v>9.787641286849976</v>
       </c>
       <c r="G7" t="n">
-        <v>21.81744289398193</v>
+        <v>23.92657399177551</v>
       </c>
     </row>
   </sheetData>
